--- a/mbs-perturbation/chatty/elm/chatty_elm_rbf_linf_results.xlsx
+++ b/mbs-perturbation/chatty/elm/chatty_elm_rbf_linf_results.xlsx
@@ -465,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9871794871794872</v>
+        <v>0.9906103286384976</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5</v>
+        <v>0.5118483412322274</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9914529914529915</v>
+        <v>0.9812206572769953</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5</v>
+        <v>0.4976076555023924</v>
       </c>
     </row>
     <row r="4">
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9828326180257511</v>
+        <v>0.9764150943396226</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -516,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9785407725321889</v>
+        <v>0.9575471698113207</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -533,7 +533,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9914163090128756</v>
+        <v>0.9764150943396226</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9862844356406588</v>
+        <v>0.9764416688812118</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5</v>
+        <v>0.5018911993469239</v>
       </c>
     </row>
   </sheetData>
